--- a/pearson_tables/t2m_netherlands-2-11.xlsx
+++ b/pearson_tables/t2m_netherlands-2-11.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.6751345068135569</v>
+        <v>0.6617735115596202</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.6062348874836834</v>
+        <v>-0.636981176521127</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7468612683214713</v>
+        <v>0.733588531498664</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6733602861189704</v>
+        <v>-0.7108780979977055</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.676507583686109</v>
+        <v>0.7165154228856324</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6561764030466003</v>
+        <v>-0.6713804910500973</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.810296684701084</v>
+        <v>-0.778134388300345</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5829628828063541</v>
+        <v>0.574554462009325</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7062912905995348</v>
+        <v>0.7051444077653021</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.5897910752275781</v>
+        <v>-0.567741576985617</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6493743805955092</v>
+        <v>0.6475066255446638</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6094605212766768</v>
+        <v>0.6457309511703351</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.5719685890015858</v>
+        <v>-0.5659544706918569</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5912897286335745</v>
+        <v>0.5806728563963832</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7287407628509482</v>
+        <v>0.7434136361483149</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.6423033344613645</v>
+        <v>-0.6409980396372348</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7477589121029116</v>
+        <v>-0.7316520247338829</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.7693134187476229</v>
+        <v>0.7381098530167799</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6932460634387414</v>
+        <v>0.715011653190104</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.7595350940149511</v>
+        <v>-0.7356937010460912</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.7491874784969589</v>
+        <v>-0.7470842291892713</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5952595968650957</v>
+        <v>0.5843025285853225</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.7306655198869751</v>
+        <v>0.75726549191328</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8002197495022626</v>
+        <v>-0.7904078479026511</v>
       </c>
     </row>
   </sheetData>

--- a/pearson_tables/t2m_netherlands-2-11.xlsx
+++ b/pearson_tables/t2m_netherlands-2-11.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6617735115596202</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.636981176521127</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.733588531498664</v>
+        <v>0.6607615832614187</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.7108780979977055</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7165154228856324</v>
+        <v>0.6911885779249263</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.6713804910500973</v>
+        <v>-0.6265692778103581</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.778134388300345</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.574554462009325</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7051444077653021</v>
+        <v>-0.6854857790183778</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.567741576985617</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6475066255446638</v>
+        <v>0.6862955558970697</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6457309511703351</v>
+        <v>-0.7070270614751112</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.5659544706918569</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5806728563963832</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7434136361483149</v>
+        <v>0.6619919067668416</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.6409980396372348</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.7316520247338829</v>
+        <v>-0.7682308209596913</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7381098530167799</v>
+        <v>0.8091045540452172</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.715011653190104</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.7356937010460912</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.7470842291892713</v>
+        <v>-0.7146818159952912</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5843025285853225</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.75726549191328</v>
+        <v>-0.7383293258771705</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.7904078479026511</v>
+        <v>0.7562226113302229</v>
       </c>
     </row>
   </sheetData>
